--- a/resources/experiment 1/metrics/R2/incidence/Microalbuminuria (INC).xlsx
+++ b/resources/experiment 1/metrics/R2/incidence/Microalbuminuria (INC).xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9933548924705242</v>
+        <v>0.9930717586779605</v>
       </c>
       <c r="C3" t="n">
-        <v>0.99330765063852</v>
+        <v>0.9934125538928393</v>
       </c>
       <c r="D3" t="n">
-        <v>0.99330765063852</v>
+        <v>0.9851299774447799</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9960734294341042</v>
+        <v>0.9914104756139079</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9960734294341042</v>
+        <v>0.9917526044288346</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9960734294341042</v>
+        <v>0.9882868978950633</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9840208691971369</v>
+        <v>0.9962295202574335</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9840208691971369</v>
+        <v>0.9956081812058916</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9840208691971369</v>
+        <v>0.9953257782265746</v>
       </c>
     </row>
   </sheetData>
